--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_6_2.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_6_2.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_4</t>
+          <t>model_6_2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9987233131575286</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7041118708616005</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9976655991570316</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9975293217470488</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9992648251343285</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0007578964596910089</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1756519751582</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000500539989997968</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004594132220279778</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0004799780525384913</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01130711906908085</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0275299193549674</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000747328883398</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02870192501669775</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P2" t="n">
-        <v>144.3699275567316</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q2" t="n">
-        <v>223.5968561731646</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_5</t>
+          <t>model_6_2_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9988668595826685</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7040992715626885</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99719418178472</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9970811749982241</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9991235968302211</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0006726811008452849</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1756594546462956</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006016208508674543</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0005427444051041052</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005721826279857798</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01142829197416396</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02593609648434561</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000663301707706</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02704024980680541</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6084783756089</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.8354069920419</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_3</t>
+          <t>model_6_2_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9985309101718767</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7040822959544897</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9981034844264376</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9979439312213644</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9993957756344563</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0008721151833502027</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1756695321006305</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004066490504753208</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003823181675622077</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003944836090187643</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01117396334309515</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0295315963562792</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00085995502134</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O4" t="n">
-        <v>0.030788817551998</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P4" t="n">
-        <v>144.0891781035612</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q4" t="n">
-        <v>223.3161067199943</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_6</t>
+          <t>model_6_2_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.998971906690002</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7040559688998707</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9967064161638289</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9966151903571209</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9989771415330407</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0006103206001333225</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1756851609775219</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007062070875189466</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006293924763894138</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0006677997819541802</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01154514525727563</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02470466757787529</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000601810718048</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02575639642237739</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P5" t="n">
-        <v>144.803052329747</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q5" t="n">
-        <v>224.02998094618</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_2</t>
+          <t>model_6_2_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9982768018498088</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7039960792679667</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9984855041074555</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9983053909707794</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9995099813569699</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001022964860237638</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1757207140501175</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003247367568382944</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000315106102246203</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003199214295422487</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01102699551975456</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03198382185164303</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001008701356209</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03334543936350605</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P6" t="n">
-        <v>143.7701002846429</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q6" t="n">
-        <v>222.9970289010759</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_7</t>
+          <t>model_6_2_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9990467902115572</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7039909646376472</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9962155900266534</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9961438058840841</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9988294194336577</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005658665069384804</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1757237503156157</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0008114495571370567</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0007170446258803951</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0007642440007238359</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01166047908356195</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0237879487753459</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000557976461528</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0248006510025548</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P7" t="n">
-        <v>144.9543047220889</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q7" t="n">
-        <v>224.181233338522</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_8</t>
+          <t>model_6_2_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9990981882299497</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7039113929657013</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.995731524251292</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9956766991869229</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9986834071713511</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0005353544229418979</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1757709874974</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009152424764583328</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000803901339221093</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0008595719078397129</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01176259493155235</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0231377272639708</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000527889816615</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02412274821529638</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P8" t="n">
-        <v>145.0651631152358</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q8" t="n">
-        <v>224.2920917316688</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_1</t>
+          <t>model_6_2_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9979451609169374</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7038345644069044</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D9" t="n">
-        <v>0.998783683310582</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9985899886942082</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9995994739682785</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001219841244132423</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1758165962487228</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002608014580655752</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002621862382590345</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002614938481623049</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01086717695195904</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03492622573557617</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001202832633988</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03641310747239395</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P9" t="n">
-        <v>143.4180691129293</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q9" t="n">
-        <v>222.6449977293623</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_9</t>
+          <t>model_6_2_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9991314596749978</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.703822429183169</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9952615735689687</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9952209059327195</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9985413304238687</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0005156030559097733</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1758238002417465</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001016008851067126</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0008886543608830896</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0009523304116349495</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0118526349389711</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02270689445762615</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000508413848782</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02367357396443878</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P10" t="n">
-        <v>145.1403467200331</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q10" t="n">
-        <v>224.3672753364662</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_10</t>
+          <t>model_6_2_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9991508445386547</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7037284981870489</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9948105958202189</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9947816080228846</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9984047126727524</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000504095363460576</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1758795617386512</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001112707067454619</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0009703401360123734</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001041524867518727</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0119320360352693</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0224520681332606</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000497066611519</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02340789915588177</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P11" t="n">
-        <v>145.1854901891521</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q11" t="n">
-        <v>224.4124188055851</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_11</t>
+          <t>model_6_2_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9991597330850203</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7036326651338748</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9943820736777924</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9943625535504519</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9982746708649126</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004988187383726872</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1759364523787876</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001204590374269805</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001048261720968094</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001126426047618949</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01200198444144185</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02233425034275131</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000491863559988</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02328506561811406</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P12" t="n">
-        <v>145.2065355559161</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.4334641723492</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_0</t>
+          <t>model_6_2_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9975165528452133</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7035744989953244</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9989633618335504</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9987701751486314</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999654638714922</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001474281510412502</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1759709823112775</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000222274961487073</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002286812525355879</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002254781070113304</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01069688911018667</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03839637366226793</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001453725163778</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04003098678052147</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P13" t="n">
-        <v>143.039169038905</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q13" t="n">
-        <v>222.266097655338</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9991607481715881</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7035370522245628</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9939778829986606</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E14" t="n">
-        <v>0.993965549436839</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9981517627067009</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0004982161391366009</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1759932123320179</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001291256552059815</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00112208312558658</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001206669838823198</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01206376893255333</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02232075579223519</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000491269362973</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02327099657664489</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P14" t="n">
-        <v>145.2089531215321</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q14" t="n">
-        <v>224.4358817379652</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_13</t>
+          <t>model_6_2_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9991560340501049</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7034435573034223</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9935992460129126</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9935924011351474</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9980364479470405</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0005010146452884328</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1760487149559771</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001372443531421163</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001191468632732121</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001281956082076642</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01211807361896441</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02238335643482525</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000494028848719</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0233362622581912</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P15" t="n">
-        <v>145.197750450388</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.4246790668211</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_14</t>
+          <t>model_6_2_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9991472134313962</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7033532452529888</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9932463351501281</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9932436722012022</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9979288351542038</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0005062509455848015</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1761023280903919</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001448114340168709</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001256313451342847</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001352213895755778</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01216596873208245</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02250002101298578</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000499192137719</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O16" t="n">
-        <v>0.023457893488973</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P16" t="n">
-        <v>145.1769561434469</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q16" t="n">
-        <v>224.4038847598799</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_15</t>
+          <t>model_6_2_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9991355501069433</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7032671603671664</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D17" t="n">
-        <v>0.992918892399336</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9929189574486172</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9978288242591697</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0005131747988094687</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1761534317972895</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001518324300767391</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001316692924285906</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001417508612526649</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01220828878307977</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02265336175514505</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000506019449594</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02361776226398509</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P17" t="n">
-        <v>145.1497880648233</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q17" t="n">
-        <v>224.3767166812563</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_16</t>
+          <t>model_6_2_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9991220459417421</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7031855433787999</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9926161742624712</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9926181499223244</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9977362779402875</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0005211914546224477</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1762018831672542</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00158323283335936</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001372626939449309</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001477929886404335</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01224561665110191</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02282961792545919</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000513924326785</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02380152202437007</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P18" t="n">
-        <v>145.1187862168608</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.3457148332938</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_17</t>
+          <t>model_6_2_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9991074537393142</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7031089144284133</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9923373382105444</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9923403887294782</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9976509352490857</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0005298540163340059</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H19" t="n">
-        <v>0.176247373422402</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001643020592202458</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001424275576582617</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001533648084392538</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01227853758487245</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02301855808546673</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000522466103816</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02399850575814919</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P19" t="n">
-        <v>145.0858180604763</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q19" t="n">
-        <v>224.3127466769093</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_18</t>
+          <t>model_6_2_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9990923447780817</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7030372610007154</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9920812281667466</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E20" t="n">
-        <v>0.992084636131819</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9975724636078162</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0005388233483947037</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1762899099923504</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001697935462177362</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001471831799167362</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001584880338533403</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01230764007262213</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02321256875907326</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000531310373806</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0242007758677886</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P20" t="n">
-        <v>145.0522455606021</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q20" t="n">
-        <v>224.2791741770352</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_19</t>
+          <t>model_6_2_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9990771433157102</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7029706959105529</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9918465224846509</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E21" t="n">
-        <v>0.991849766304912</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9975004602693078</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0005478475931274206</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H21" t="n">
-        <v>0.176329425905333</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001748260829443439</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001515504949974267</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001631889592803726</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01233337757626809</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02340614434560764</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000540208790804</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02440259236779846</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P21" t="n">
-        <v>145.0190268488566</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.2459554652897</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_20</t>
+          <t>model_6_2_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9990621540561144</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7029089755043723</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9916317562645919</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9916345696824163</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9974345583605165</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000556745865125812</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1763660658046245</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001794310796382079</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001555519943262929</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001674915369822504</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01235622428728491</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02359546280804452</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000548982991543</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02459997050912451</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P22" t="n">
-        <v>144.9868033573206</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q22" t="n">
-        <v>224.2137319737536</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_21</t>
+          <t>model_6_2_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9990476077457501</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7028520066043251</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.991435697983768</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9914377677466817</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9973743430303165</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0005653811833259198</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1763998850046209</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001836349424931345</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001592114514526586</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001714228515948641</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01237653900403262</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02377774554758966</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000557497904927</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02479001340226938</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P23" t="n">
-        <v>144.9560207870905</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q23" t="n">
-        <v>224.1829494035235</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_22</t>
+          <t>model_6_2_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9990336810130923</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7027996021089293</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9912571308854748</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9912583045156411</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F24" t="n">
-        <v>0.997319458492831</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0005736486934351236</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1764309945768442</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001874637610896853</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001625485019613357</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001750061315255105</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01239442164142954</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02395096435292583</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000565650138678</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02497060649076107</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P24" t="n">
-        <v>144.9269867627119</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.1539153791449</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_23</t>
+          <t>model_6_2_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9990204389665127</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7027515412730614</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9910945323801619</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9910945537355295</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9972694390048132</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0005815097443114153</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1764595255651354</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00190950182646983</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001655933854224189</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001782717840347009</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01241039347341679</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02411451314688761</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000573401580578</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02514111789547448</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P25" t="n">
-        <v>144.8997656578932</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q25" t="n">
-        <v>224.1266942743263</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9990079705007247</v>
+        <v>0.5692387035740197</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7027075020056196</v>
+        <v>0.2355707868591003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9909467881769199</v>
+        <v>0.8943354348734981</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9909456407224606</v>
+        <v>0.6528556626273814</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9972239799462013</v>
+        <v>0.7252605061897446</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0005889115642129024</v>
+        <v>0.2557185134775685</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1764856691766861</v>
+        <v>0.4537982025430372</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001941180996838436</v>
+        <v>0.02094077447596653</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00168362366250018</v>
+        <v>0.1768227066963097</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001812396970363048</v>
+        <v>0.09888174058613815</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01242456581029432</v>
+        <v>0.2823828768330753</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02426750016406516</v>
+        <v>0.5056861808251918</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000580700194698</v>
+        <v>0.06015717143422494</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02530061788670006</v>
+        <v>0.5272142884576241</v>
       </c>
       <c r="P26" t="n">
-        <v>144.8744690624688</v>
+        <v>28.72735599237364</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.1013976789018</v>
+        <v>44.57274171566024</v>
       </c>
     </row>
   </sheetData>
